--- a/programs/tests/prgm301.xlsx
+++ b/programs/tests/prgm301.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD79A784-9BF0-410D-AB13-4012A4A5BB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B13AE7B-A993-4F72-97E8-120FDC443BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10580" yWindow="3960" windowWidth="23750" windowHeight="14830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="4740" windowWidth="28420" windowHeight="14830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foo" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -490,6 +490,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -535,11 +544,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -585,7 +595,228 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -652,7 +883,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -663,67 +894,20 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>foo!$A$5:$A$19</c:f>
+              <c:f>foo!$A$21:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.5416289999999999</c:v>
                 </c:pt>
@@ -734,39 +918,24 @@
                   <c:v>8.0205590000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1902780000000002</c:v>
+                  <c:v>2.4022399999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4022399999999999</c:v>
+                  <c:v>6.6035120000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6035120000000003</c:v>
+                  <c:v>5.2632430000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9710040000000002</c:v>
+                  <c:v>5.4283640000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.864852</c:v>
+                  <c:v>0.67159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2632430000000001</c:v>
+                  <c:v>5.2632849999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4283640000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.0172000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.67159999999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.519242</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.2632849999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>8.8238000000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -774,10 +943,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>foo!$B$5:$B$19</c:f>
+              <c:f>foo!$B$21:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.5745070000000001</c:v>
                 </c:pt>
@@ -788,39 +957,24 @@
                   <c:v>4.5157299999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.8310639999999996</c:v>
+                  <c:v>3.8123499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8123499999999999</c:v>
+                  <c:v>7.846965</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.846965</c:v>
+                  <c:v>9.6651000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.486739</c:v>
+                  <c:v>5.1702250000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.898962</c:v>
+                  <c:v>1.1700269999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6651000000000001E-2</c:v>
+                  <c:v>0.68488700000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1702250000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.3690150000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1700269999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.4821879999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.68488700000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>0.29523100000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -829,7 +983,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F949-4B8D-8CDF-34BD80E08F87}"/>
+              <c16:uniqueId val="{00000001-6E9C-4615-AF91-2BAFD07EEF02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -848,12 +1002,91 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="25000"/>
+                  <a:lumOff val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>foo!$A$33:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.1902780000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9710040000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.864852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0172000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.519242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>foo!$B$33:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.8310639999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.486739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.898962</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3690150000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4821879999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6E9C-4615-AF91-2BAFD07EEF02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -891,7 +1124,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F949-4B8D-8CDF-34BD80E08F87}"/>
+              <c16:uniqueId val="{00000005-6E9C-4615-AF91-2BAFD07EEF02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1635,16 +1868,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1993,10 +2226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2005,7 +2238,7 @@
     <col min="3" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2016,7 +2249,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2027,7 +2260,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2041,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2.5416289999999999</v>
       </c>
@@ -2060,8 +2293,16 @@
         <f>MIN(C5:D5)</f>
         <v>1.9429536192843102</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <f>IF(C5&lt;=D5,$B$1,$B$2)</f>
+        <v>4.25</v>
+      </c>
+      <c r="G5">
+        <f>IF(C5&lt;=D5,$C$1,$C$2)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.6161120000000002</v>
       </c>
@@ -2080,8 +2321,16 @@
         <f t="shared" ref="E6:E19" si="2">MIN(C6:D6)</f>
         <v>4.2729211328262311</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <f t="shared" ref="F6:F19" si="3">IF(C6&lt;=D6,$B$1,$B$2)</f>
+        <v>4.25</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G19" si="4">IF(C6&lt;=D6,$C$1,$C$2)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>8.0205590000000004</v>
       </c>
@@ -2100,8 +2349,16 @@
         <f t="shared" si="2"/>
         <v>3.904974085110041</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7.1902780000000002</v>
       </c>
@@ -2120,8 +2377,16 @@
         <f t="shared" si="2"/>
         <v>6.5131132409455308</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2.4022399999999999</v>
       </c>
@@ -2140,8 +2405,16 @@
         <f t="shared" si="2"/>
         <v>1.8739742634572121</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6.6035120000000003</v>
       </c>
@@ -2160,8 +2433,16 @@
         <f t="shared" si="2"/>
         <v>4.9431896024094604</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3.9710040000000002</v>
       </c>
@@ -2180,8 +2461,16 @@
         <f t="shared" si="2"/>
         <v>3.1521199409503757</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.864852</v>
       </c>
@@ -2200,8 +2489,16 @@
         <f t="shared" si="2"/>
         <v>1.3559110071638183</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5.2632430000000001</v>
       </c>
@@ -2220,8 +2517,16 @@
         <f t="shared" si="2"/>
         <v>3.5509781459268375</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>5.4283640000000002</v>
       </c>
@@ -2240,8 +2545,16 @@
         <f t="shared" si="2"/>
         <v>2.0440629313015295</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>9.0172000000000002E-2</v>
       </c>
@@ -2260,8 +2573,16 @@
         <f t="shared" si="2"/>
         <v>1.6640894085982882</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.67159999999999997</v>
       </c>
@@ -2280,8 +2601,16 @@
         <f t="shared" si="2"/>
         <v>4.2700961043902748</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.519242</v>
       </c>
@@ -2300,8 +2629,16 @@
         <f t="shared" si="2"/>
         <v>1.7828091658694154</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>5.2632849999999998</v>
       </c>
@@ -2320,8 +2657,16 @@
         <f t="shared" si="2"/>
         <v>2.991923744682341</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>8.8238000000000003</v>
       </c>
@@ -2340,8 +2685,565 @@
         <f t="shared" si="2"/>
         <v>5.584817882738971</v>
       </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2.5416289999999999</v>
+      </c>
+      <c r="B21">
+        <v>2.5745070000000001</v>
+      </c>
+      <c r="C21">
+        <f>SQRT(SUMXMY2($B$1:$C$1,A21:B21))</f>
+        <v>3.7597772895066535</v>
+      </c>
+      <c r="D21">
+        <f>SQRT(SUMXMY2($B$2:$C$2,A21:B21))</f>
+        <v>1.9429536192843102</v>
+      </c>
+      <c r="E21">
+        <f>MIN(C21:D21)</f>
+        <v>1.9429536192843102</v>
+      </c>
+      <c r="F21">
+        <f>IF(C21&lt;=D21,$B$1,$B$2)</f>
+        <v>4.25</v>
+      </c>
+      <c r="G21">
+        <f>IF(C21&lt;=D21,$C$1,$C$2)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>7.6161120000000002</v>
+      </c>
+      <c r="B22">
+        <v>6.1319470000000003</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:C30" si="5">SQRT(SUMXMY2($B$1:$C$1,A22:B22))</f>
+        <v>5.8672997628681802</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:D30" si="6">SQRT(SUMXMY2($B$2:$C$2,A22:B22))</f>
+        <v>4.2729211328262311</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:E30" si="7">MIN(C22:D22)</f>
+        <v>4.2729211328262311</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F30" si="8">IF(C22&lt;=D22,$B$1,$B$2)</f>
+        <v>4.25</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:G30" si="9">IF(C22&lt;=D22,$C$1,$C$2)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>8.0205590000000004</v>
+      </c>
+      <c r="B23">
+        <v>4.5157299999999996</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="5"/>
+        <v>6.5059666926123283</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="6"/>
+        <v>3.904974085110041</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="7"/>
+        <v>3.904974085110041</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="8"/>
+        <v>4.25</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2.4022399999999999</v>
+      </c>
+      <c r="B24">
+        <v>3.8123499999999999</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="5"/>
+        <v>2.5234013830740443</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="6"/>
+        <v>1.8739742634572121</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="7"/>
+        <v>1.8739742634572121</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="8"/>
+        <v>4.25</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>6.6035120000000003</v>
+      </c>
+      <c r="B25">
+        <v>7.846965</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="5"/>
+        <v>5.1094888144871211</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="6"/>
+        <v>4.9431896024094604</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="7"/>
+        <v>4.9431896024094604</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="8"/>
+        <v>4.25</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>5.2632430000000001</v>
+      </c>
+      <c r="B26">
+        <v>9.6651000000000001E-2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="5"/>
+        <v>7.0856601875089948</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="6"/>
+        <v>3.5509781459268375</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="7"/>
+        <v>3.5509781459268375</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="8"/>
+        <v>4.25</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>5.4283640000000002</v>
+      </c>
+      <c r="B27">
+        <v>5.1702250000000003</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="5"/>
+        <v>3.8335721940666518</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="6"/>
+        <v>2.0440629313015295</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="7"/>
+        <v>2.0440629313015295</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="8"/>
+        <v>4.25</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="B28">
+        <v>1.1700269999999999</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="5"/>
+        <v>5.1931755449559951</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="6"/>
+        <v>4.2700961043902748</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="7"/>
+        <v>4.2700961043902748</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="8"/>
+        <v>4.25</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>5.2632849999999998</v>
+      </c>
+      <c r="B29">
+        <v>0.68488700000000002</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="5"/>
+        <v>6.5813109783685197</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="6"/>
+        <v>2.991923744682341</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="7"/>
+        <v>2.991923744682341</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="8"/>
+        <v>4.25</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>8.8238000000000003</v>
+      </c>
+      <c r="B30">
+        <v>0.29523100000000002</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="5"/>
+        <v>9.2465085455733504</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="6"/>
+        <v>5.584817882738971</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="7"/>
+        <v>5.584817882738971</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="8"/>
+        <v>4.25</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f>AVERAGE(A21:A29)</f>
+        <v>4.8678382222222227</v>
+      </c>
+      <c r="B31">
+        <f>AVERAGE(B21:B29)</f>
+        <v>3.5559210000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>7.1902780000000002</v>
+      </c>
+      <c r="B33">
+        <v>9.8310639999999996</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:C37" si="10">SQRT(SUMXMY2($B$1:$C$1,A33:B33))</f>
+        <v>6.5131132409455308</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:D37" si="11">SQRT(SUMXMY2($B$2:$C$2,A33:B33))</f>
+        <v>6.9805161764285018</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33:E37" si="12">MIN(C33:D33)</f>
+        <v>6.5131132409455308</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F37" si="13">IF(C33&lt;=D33,$B$1,$B$2)</f>
+        <v>1.75</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G37" si="14">IF(C33&lt;=D33,$C$1,$C$2)</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>3.9710040000000002</v>
+      </c>
+      <c r="B34">
+        <v>8.486739</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="10"/>
+        <v>3.1521199409503757</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="11"/>
+        <v>4.9945374782993675</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="12"/>
+        <v>3.1521199409503757</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="13"/>
+        <v>1.75</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="14"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1.864852</v>
+      </c>
+      <c r="B35">
+        <v>4.898962</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="10"/>
+        <v>1.3559110071638183</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="11"/>
+        <v>2.765144780901716</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="12"/>
+        <v>1.3559110071638183</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="13"/>
+        <v>1.75</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="14"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>9.0172000000000002E-2</v>
+      </c>
+      <c r="B36">
+        <v>6.3690150000000001</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="10"/>
+        <v>1.6640894085982882</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="11"/>
+        <v>5.0532579648983882</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="12"/>
+        <v>1.6640894085982882</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="13"/>
+        <v>1.75</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="14"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1.519242</v>
+      </c>
+      <c r="B37">
+        <v>4.4821879999999998</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="10"/>
+        <v>1.7828091658694154</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="11"/>
+        <v>2.9020221435936699</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="12"/>
+        <v>1.7828091658694154</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="13"/>
+        <v>1.75</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="14"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f>AVERAGE(A33:A36)</f>
+        <v>3.2790764999999999</v>
+      </c>
+      <c r="B38">
+        <f>AVERAGE(B33:B36)</f>
+        <v>7.3964449999999999</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F5:F19">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+      <formula>$B$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G18">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+      <formula>$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:F23">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>$B$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:G23">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F25">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>$B$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G25">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F27">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>$B$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G27">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>$B$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29:F31">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>$B$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>$B$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:F35">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>$B$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:G35">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>$B$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$B$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/programs/tests/prgm301.xlsx
+++ b/programs/tests/prgm301.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B13AE7B-A993-4F72-97E8-120FDC443BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F15C6FB-6F41-4A33-B0D7-2CAD051F2356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="4740" windowWidth="28420" windowHeight="14830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="1850" windowWidth="20980" windowHeight="13070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foo" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Centroid-B</t>
   </si>
@@ -45,6 +45,18 @@
   </si>
   <si>
     <t>Array-B</t>
+  </si>
+  <si>
+    <t>Initial-A</t>
+  </si>
+  <si>
+    <t>Initial-B</t>
+  </si>
+  <si>
+    <t>Final-A</t>
+  </si>
+  <si>
+    <t>Final-B</t>
   </si>
 </sst>
 </file>
@@ -595,228 +607,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -843,45 +634,28 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2097045561612494E-2"/>
+          <c:y val="1.9830804021469636E-2"/>
+          <c:w val="0.92932738108591129"/>
+          <c:h val="0.8969236624878083"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Data</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -894,7 +668,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:noFill/>
@@ -904,10 +678,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>foo!$A$21:$A$30</c:f>
+              <c:f>foo!$A$8:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>2.5416289999999999</c:v>
                 </c:pt>
@@ -918,24 +692,39 @@
                   <c:v>8.0205590000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>7.1902780000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2.4022399999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6.6035120000000003</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>3.9710040000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.864852</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>5.2632430000000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>5.4283640000000002</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>9.0172000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.67159999999999997</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
+                  <c:v>1.519242</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>5.2632849999999998</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>8.8238000000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -943,10 +732,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>foo!$B$21:$B$30</c:f>
+              <c:f>foo!$B$8:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>2.5745070000000001</c:v>
                 </c:pt>
@@ -957,24 +746,39 @@
                   <c:v>4.5157299999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>9.8310639999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3.8123499999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7.846965</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>8.486739</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.898962</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>9.6651000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>5.1702250000000003</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>6.3690150000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1.1700269999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
+                  <c:v>4.4821879999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.68488700000000002</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>0.29523100000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -983,94 +787,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6E9C-4615-AF91-2BAFD07EEF02}"/>
+              <c16:uniqueId val="{00000009-6E9C-4615-AF91-2BAFD07EEF02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="25000"/>
-                  <a:lumOff val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>foo!$A$33:$A$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>7.1902780000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.9710040000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.864852</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.0172000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.519242</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>foo!$B$33:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.8310639999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.486739</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.898962</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.3690150000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.4821879999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6E9C-4615-AF91-2BAFD07EEF02}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:tx>
+            <c:v>Centroids</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1086,11 +812,35 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-6E9C-4615-AF91-2BAFD07EEF02}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>foo!$B$1:$B$2</c:f>
@@ -1098,10 +848,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.25</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1113,10 +863,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,7 +874,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6E9C-4615-AF91-2BAFD07EEF02}"/>
+              <c16:uniqueId val="{0000000B-6E9C-4615-AF91-2BAFD07EEF02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1868,16 +1618,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2226,10 +1976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2238,1012 +1988,366 @@
     <col min="3" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="C1" s="1">
-        <v>6.25</v>
+      <c r="D7" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4.25</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3.5</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2.5416289999999999</v>
+      </c>
+      <c r="B8">
+        <v>2.5745070000000001</v>
+      </c>
+      <c r="C8">
+        <f>SQRT(SUMXMY2($B$1:$C$1,A8:B8))</f>
+        <v>2.9106405251576501</v>
+      </c>
+      <c r="D8">
+        <f>SQRT(SUMXMY2($B$2:$C$2,A8:B8))</f>
+        <v>9.8174019102148407</v>
+      </c>
+      <c r="E8">
+        <f>MIN(C8:D8)</f>
+        <v>2.9106405251576501</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>0</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7.6161120000000002</v>
+      </c>
+      <c r="B9">
+        <v>6.1319470000000003</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:C22" si="0">SQRT(SUMXMY2($B$1:$C$1,A9:B9))</f>
+        <v>9.0751240766918997</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D22" si="1">SQRT(SUMXMY2($B$2:$C$2,A9:B9))</f>
+        <v>3.8591210148624513</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E22" si="2">MIN(C9:D9)</f>
+        <v>3.8591210148624513</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2.5416289999999999</v>
-      </c>
-      <c r="B5">
-        <v>2.5745070000000001</v>
-      </c>
-      <c r="C5">
-        <f>SQRT(SUMXMY2($B$1:$C$1,A5:B5))</f>
-        <v>3.7597772895066535</v>
-      </c>
-      <c r="D5">
-        <f>SQRT(SUMXMY2($B$2:$C$2,A5:B5))</f>
-        <v>1.9429536192843102</v>
-      </c>
-      <c r="E5">
-        <f>MIN(C5:D5)</f>
-        <v>1.9429536192843102</v>
-      </c>
-      <c r="F5">
-        <f>IF(C5&lt;=D5,$B$1,$B$2)</f>
-        <v>4.25</v>
-      </c>
-      <c r="G5">
-        <f>IF(C5&lt;=D5,$C$1,$C$2)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>7.6161120000000002</v>
-      </c>
-      <c r="B6">
-        <v>6.1319470000000003</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:C19" si="0">SQRT(SUMXMY2($B$1:$C$1,A6:B6))</f>
-        <v>5.8672997628681802</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6:D19" si="1">SQRT(SUMXMY2($B$2:$C$2,A6:B6))</f>
-        <v>4.2729211328262311</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E19" si="2">MIN(C6:D6)</f>
-        <v>4.2729211328262311</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ref="F6:F19" si="3">IF(C6&lt;=D6,$B$1,$B$2)</f>
-        <v>4.25</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G19" si="4">IF(C6&lt;=D6,$C$1,$C$2)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>8.0205590000000004</v>
       </c>
-      <c r="B7">
+      <c r="B10">
         <v>4.5157299999999996</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>6.5059666926123283</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>3.904974085110041</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>3.904974085110041</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>4.25</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="4"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7.1902780000000002</v>
-      </c>
-      <c r="B8">
-        <v>9.8310639999999996</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>6.5131132409455308</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>6.9805161764285018</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>6.5131132409455308</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>1.75</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="4"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>2.4022399999999999</v>
-      </c>
-      <c r="B9">
-        <v>3.8123499999999999</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>2.5234013830740443</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>1.8739742634572121</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>1.8739742634572121</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>4.25</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="4"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>6.6035120000000003</v>
-      </c>
-      <c r="B10">
-        <v>7.846965</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>5.1094888144871211</v>
+        <v>8.5255436838585847</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>4.9431896024094604</v>
+        <v>5.1992011987786162</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>4.9431896024094604</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>4.25</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>5.1992011987786162</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>3.9710040000000002</v>
+        <v>7.1902780000000002</v>
       </c>
       <c r="B11">
-        <v>8.486739</v>
+        <v>9.8310639999999996</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>3.1521199409503757</v>
+        <v>11.481662557721334</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>4.9945374782993675</v>
+        <v>2.3333279000989124</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>3.1521199409503757</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>1.75</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="4"/>
-        <v>6.25</v>
+        <v>2.3333279000989124</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>1.864852</v>
+        <v>2.4022399999999999</v>
       </c>
       <c r="B12">
-        <v>4.898962</v>
+        <v>3.8123499999999999</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>1.3559110071638183</v>
+        <v>3.8197093528303956</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>2.765144780901716</v>
+        <v>9.0954691764691287</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>1.3559110071638183</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>1.75</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
-        <v>6.25</v>
+        <v>3.8197093528303956</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>5.2632430000000001</v>
+        <v>6.6035120000000003</v>
       </c>
       <c r="B13">
-        <v>9.6651000000000001E-2</v>
+        <v>7.846965</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>7.0856601875089948</v>
+        <v>9.5514791234326104</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>3.5509781459268375</v>
+        <v>3.334991371108627</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>3.5509781459268375</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>4.25</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>3.334991371108627</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>5.4283640000000002</v>
+        <v>3.9710040000000002</v>
       </c>
       <c r="B14">
-        <v>5.1702250000000003</v>
+        <v>8.486739</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>3.8335721940666518</v>
+        <v>8.7083792190129738</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>2.0440629313015295</v>
+        <v>5.62107593100618</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>2.0440629313015295</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>4.25</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>5.62107593100618</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>9.0172000000000002E-2</v>
+        <v>1.864852</v>
       </c>
       <c r="B15">
-        <v>6.3690150000000001</v>
+        <v>4.898962</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>1.6640894085982882</v>
+        <v>4.6058319182692715</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>5.0532579648983882</v>
+        <v>8.9143163315729375</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>1.6640894085982882</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
-        <v>1.75</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="4"/>
-        <v>6.25</v>
+        <v>4.6058319182692715</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>0.67159999999999997</v>
+        <v>5.2632430000000001</v>
       </c>
       <c r="B16">
-        <v>1.1700269999999999</v>
+        <v>9.6651000000000001E-2</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>5.1931755449559951</v>
+        <v>4.7802901891883094</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>4.2700961043902748</v>
+        <v>10.313732704159538</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>4.2700961043902748</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>4.25</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>4.7802901891883094</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1.519242</v>
+        <v>5.4283640000000002</v>
       </c>
       <c r="B17">
-        <v>4.4821879999999998</v>
+        <v>5.1702250000000003</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>1.7828091658694154</v>
+        <v>6.7896813818559272</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>2.9020221435936699</v>
+        <v>5.9434982348042293</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>1.7828091658694154</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
-        <v>1.75</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
-        <v>6.25</v>
+        <v>5.9434982348042293</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>5.2632849999999998</v>
+        <v>9.0172000000000002E-2</v>
       </c>
       <c r="B18">
-        <v>0.68488700000000002</v>
+        <v>6.3690150000000001</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>6.5813109783685197</v>
+        <v>5.883306558374211</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>2.991923744682341</v>
+        <v>9.9170524885073075</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>2.991923744682341</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
-        <v>4.25</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>5.883306558374211</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>8.8238000000000003</v>
+        <v>0.67159999999999997</v>
       </c>
       <c r="B19">
-        <v>0.29523100000000002</v>
+        <v>1.1700269999999999</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>9.2465085455733504</v>
+        <v>0.69165218190142352</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>5.584817882738971</v>
+        <v>12.137919786385517</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>5.584817882738971</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="3"/>
-        <v>4.25</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>0.69165218190142352</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1.519242</v>
+      </c>
+      <c r="B20">
+        <v>4.4821879999999998</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>4.1105565951471821</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>9.4271382466742253</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>4.1105565951471821</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2.5416289999999999</v>
+        <v>5.2632849999999998</v>
       </c>
       <c r="B21">
-        <v>2.5745070000000001</v>
+        <v>0.68488700000000002</v>
       </c>
       <c r="C21">
-        <f>SQRT(SUMXMY2($B$1:$C$1,A21:B21))</f>
-        <v>3.7597772895066535</v>
+        <f t="shared" si="0"/>
+        <v>4.766871845769928</v>
       </c>
       <c r="D21">
-        <f>SQRT(SUMXMY2($B$2:$C$2,A21:B21))</f>
-        <v>1.9429536192843102</v>
+        <f t="shared" si="1"/>
+        <v>9.7803870676979852</v>
       </c>
       <c r="E21">
-        <f>MIN(C21:D21)</f>
-        <v>1.9429536192843102</v>
-      </c>
-      <c r="F21">
-        <f>IF(C21&lt;=D21,$B$1,$B$2)</f>
-        <v>4.25</v>
-      </c>
-      <c r="G21">
-        <f>IF(C21&lt;=D21,$C$1,$C$2)</f>
-        <v>3.5</v>
+        <f t="shared" si="2"/>
+        <v>4.766871845769928</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>7.6161120000000002</v>
+        <v>8.8238000000000003</v>
       </c>
       <c r="B22">
-        <v>6.1319470000000003</v>
+        <v>0.29523100000000002</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:C30" si="5">SQRT(SUMXMY2($B$1:$C$1,A22:B22))</f>
-        <v>5.8672997628681802</v>
+        <f t="shared" si="0"/>
+        <v>8.3263183210444822</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:D30" si="6">SQRT(SUMXMY2($B$2:$C$2,A22:B22))</f>
-        <v>4.2729211328262311</v>
+        <f t="shared" si="1"/>
+        <v>9.2295730553130682</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:E30" si="7">MIN(C22:D22)</f>
-        <v>4.2729211328262311</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ref="F22:F30" si="8">IF(C22&lt;=D22,$B$1,$B$2)</f>
-        <v>4.25</v>
-      </c>
-      <c r="G22">
-        <f t="shared" ref="G22:G30" si="9">IF(C22&lt;=D22,$C$1,$C$2)</f>
-        <v>3.5</v>
+        <f t="shared" si="2"/>
+        <v>8.3263183210444822</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>8.0205590000000004</v>
-      </c>
-      <c r="B23">
-        <v>4.5157299999999996</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="5"/>
-        <v>6.5059666926123283</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="6"/>
-        <v>3.904974085110041</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="7"/>
-        <v>3.904974085110041</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="8"/>
-        <v>4.25</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="9"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>2.4022399999999999</v>
-      </c>
-      <c r="B24">
-        <v>3.8123499999999999</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="5"/>
-        <v>2.5234013830740443</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="6"/>
-        <v>1.8739742634572121</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="7"/>
-        <v>1.8739742634572121</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="8"/>
-        <v>4.25</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="9"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>6.6035120000000003</v>
-      </c>
-      <c r="B25">
-        <v>7.846965</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="5"/>
-        <v>5.1094888144871211</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="6"/>
-        <v>4.9431896024094604</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="7"/>
-        <v>4.9431896024094604</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="8"/>
-        <v>4.25</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="9"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>5.2632430000000001</v>
-      </c>
-      <c r="B26">
-        <v>9.6651000000000001E-2</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="5"/>
-        <v>7.0856601875089948</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="6"/>
-        <v>3.5509781459268375</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="7"/>
-        <v>3.5509781459268375</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="8"/>
-        <v>4.25</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="9"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>5.4283640000000002</v>
-      </c>
-      <c r="B27">
-        <v>5.1702250000000003</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="5"/>
-        <v>3.8335721940666518</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="6"/>
-        <v>2.0440629313015295</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="7"/>
-        <v>2.0440629313015295</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="8"/>
-        <v>4.25</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="9"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>0.67159999999999997</v>
-      </c>
-      <c r="B28">
-        <v>1.1700269999999999</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="5"/>
-        <v>5.1931755449559951</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="6"/>
-        <v>4.2700961043902748</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="7"/>
-        <v>4.2700961043902748</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="8"/>
-        <v>4.25</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="9"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>5.2632849999999998</v>
-      </c>
-      <c r="B29">
-        <v>0.68488700000000002</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="5"/>
-        <v>6.5813109783685197</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="6"/>
-        <v>2.991923744682341</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="7"/>
-        <v>2.991923744682341</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="8"/>
-        <v>4.25</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="9"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>8.8238000000000003</v>
-      </c>
-      <c r="B30">
-        <v>0.29523100000000002</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="5"/>
-        <v>9.2465085455733504</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="6"/>
-        <v>5.584817882738971</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="7"/>
-        <v>5.584817882738971</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="8"/>
-        <v>4.25</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="9"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <f>AVERAGE(A21:A29)</f>
-        <v>4.8678382222222227</v>
-      </c>
-      <c r="B31">
-        <f>AVERAGE(B21:B29)</f>
-        <v>3.5559210000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>7.1902780000000002</v>
-      </c>
-      <c r="B33">
-        <v>9.8310639999999996</v>
-      </c>
-      <c r="C33">
-        <f t="shared" ref="C33:C37" si="10">SQRT(SUMXMY2($B$1:$C$1,A33:B33))</f>
-        <v>6.5131132409455308</v>
-      </c>
-      <c r="D33">
-        <f t="shared" ref="D33:D37" si="11">SQRT(SUMXMY2($B$2:$C$2,A33:B33))</f>
-        <v>6.9805161764285018</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ref="E33:E37" si="12">MIN(C33:D33)</f>
-        <v>6.5131132409455308</v>
-      </c>
-      <c r="F33">
-        <f t="shared" ref="F33:F37" si="13">IF(C33&lt;=D33,$B$1,$B$2)</f>
-        <v>1.75</v>
-      </c>
-      <c r="G33">
-        <f t="shared" ref="G33:G37" si="14">IF(C33&lt;=D33,$C$1,$C$2)</f>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>3.9710040000000002</v>
-      </c>
-      <c r="B34">
-        <v>8.486739</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="10"/>
-        <v>3.1521199409503757</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="11"/>
-        <v>4.9945374782993675</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="12"/>
-        <v>3.1521199409503757</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="13"/>
-        <v>1.75</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="14"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>1.864852</v>
-      </c>
-      <c r="B35">
-        <v>4.898962</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="10"/>
-        <v>1.3559110071638183</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="11"/>
-        <v>2.765144780901716</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="12"/>
-        <v>1.3559110071638183</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="13"/>
-        <v>1.75</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="14"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>9.0172000000000002E-2</v>
-      </c>
-      <c r="B36">
-        <v>6.3690150000000001</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="10"/>
-        <v>1.6640894085982882</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="11"/>
-        <v>5.0532579648983882</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="12"/>
-        <v>1.6640894085982882</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="13"/>
-        <v>1.75</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="14"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>1.519242</v>
-      </c>
-      <c r="B37">
-        <v>4.4821879999999998</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="10"/>
-        <v>1.7828091658694154</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="11"/>
-        <v>2.9020221435936699</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="12"/>
-        <v>1.7828091658694154</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="13"/>
-        <v>1.75</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="14"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <f>AVERAGE(A33:A36)</f>
-        <v>3.2790764999999999</v>
-      </c>
-      <c r="B38">
-        <f>AVERAGE(B33:B36)</f>
-        <v>7.3964449999999999</v>
-      </c>
+    <row r="23" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F5:F19">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
-      <formula>$B$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G18">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
-      <formula>$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F23">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>$B$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G23">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F25">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>$B$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G25">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F27">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>$B$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>$B$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F31">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>$B$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>$B$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F35">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>$B$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34:G35">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>$B$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>$B$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/programs/tests/prgm301.xlsx
+++ b/programs/tests/prgm301.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F15C6FB-6F41-4A33-B0D7-2CAD051F2356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5D7DE6-1B56-4F25-BB6C-E207DBC91D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="1850" windowWidth="20980" windowHeight="13070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foo" sheetId="1" r:id="rId1"/>
@@ -33,37 +33,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Centroid-B</t>
+    <t>g1_upper</t>
   </si>
   <si>
-    <t>Centroid-A</t>
-  </si>
-  <si>
-    <t>Array-A</t>
-  </si>
-  <si>
-    <t>Array-B</t>
-  </si>
-  <si>
-    <t>Initial-A</t>
-  </si>
-  <si>
-    <t>Initial-B</t>
-  </si>
-  <si>
-    <t>Final-A</t>
-  </si>
-  <si>
-    <t>Final-B</t>
+    <t>g1_lower</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,13 +180,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -387,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -502,15 +477,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -556,12 +522,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -636,17 +598,7 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.2097045561612494E-2"/>
-          <c:y val="1.9830804021469636E-2"/>
-          <c:w val="0.92932738108591129"/>
-          <c:h val="0.8969236624878083"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -654,8 +606,178 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Data</c:v>
+            <c:v>Group 1</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>foo!$B$4:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.6323580166833951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5696587071088004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9751854944753866</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1568963164360877</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4025496446878742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7589030365095573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4165298932695236</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94660114622816371</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9541278326410305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8802172525623613</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1164419888833574</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5467341547166402</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4894745571356509</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.62377028056304462</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.93138521007829</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7869856800852184</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6195165290695286</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4035133654849652</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8881324236397723</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9506089644321216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>foo!$C$4:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.6172358251650989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63070141535573576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4247736689704666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9546350411836229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6891850546722678</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4213301466781747</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4542592173479849</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0606890794939909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48603740359005032</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9150439979469489</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23343998770424645</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13706544646434982</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38198546723883908</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.42611071065918893</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.615504738021861</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2993958451491467</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1549501081993427</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2443141745334152</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.62354881774007631</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0176969087665739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-577E-47BB-B88C-1B9C2946EAF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -668,118 +790,150 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>foo!$A$8:$A$22</c:f>
+              <c:f>foo!$E$4:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.5416289999999999</c:v>
+                  <c:v>7.6730961376143796</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6161120000000002</c:v>
+                  <c:v>8.5250198526210781</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0205590000000004</c:v>
+                  <c:v>6.8862449012605058</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1902780000000002</c:v>
+                  <c:v>8.1684164722507333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4022399999999999</c:v>
+                  <c:v>7.8043487611454934</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6035120000000003</c:v>
+                  <c:v>8.6595163964019299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9710040000000002</c:v>
+                  <c:v>8.383509673210364</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.864852</c:v>
+                  <c:v>8.9325657377337091</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2632430000000001</c:v>
+                  <c:v>8.6382769727089048</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4283640000000002</c:v>
+                  <c:v>7.8676157185187598</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0172000000000002E-2</c:v>
+                  <c:v>7.6021079415808721</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.67159999999999997</c:v>
+                  <c:v>8.7341014926232532</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.519242</c:v>
+                  <c:v>7.5612318080779506</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2632849999999998</c:v>
+                  <c:v>8.7447563867597946</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.8238000000000003</c:v>
+                  <c:v>6.6291443245603894</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.5395376705951316</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.5516803768753284</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8341212622936176</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8120667220925935</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.8335592163320609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>foo!$B$8:$B$22</c:f>
+              <c:f>foo!$F$4:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.5745070000000001</c:v>
+                  <c:v>5.8231447787602679</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1319470000000003</c:v>
+                  <c:v>8.0508216001796153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5157299999999996</c:v>
+                  <c:v>6.0624562763239673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.8310639999999996</c:v>
+                  <c:v>9.0911843404996553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8123499999999999</c:v>
+                  <c:v>9.39681742367444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.846965</c:v>
+                  <c:v>7.976833193037498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.486739</c:v>
+                  <c:v>6.5001816400079324</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.898962</c:v>
+                  <c:v>8.3260212200869859</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6651000000000001E-2</c:v>
+                  <c:v>6.623100740840635</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1702250000000003</c:v>
+                  <c:v>8.1321013185671482</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3690150000000001</c:v>
+                  <c:v>9.7753188731348963</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1700269999999999</c:v>
+                  <c:v>6.1563904900401951</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4821879999999998</c:v>
+                  <c:v>8.943994747528949</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.68488700000000002</c:v>
+                  <c:v>7.0616770522756216</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.29523100000000002</c:v>
+                  <c:v>8.0292897501746516</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.5927872713438154</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.258619016361135</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.1285166739670078</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.5744921824233273</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0635481140850338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,16 +941,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-6E9C-4615-AF91-2BAFD07EEF02}"/>
+              <c16:uniqueId val="{00000003-577E-47BB-B88C-1B9C2946EAF3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Centroids</c:v>
-          </c:tx>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -809,64 +960,150 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000C-6E9C-4615-AF91-2BAFD07EEF02}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>foo!$B$1:$B$2</c:f>
+              <c:f>foo!$H$4:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>3.3142502446550184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5</c:v>
+                  <c:v>3.4071566093533359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2291651581276346</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1727072585277183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.740613541588063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3564000377922074</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.466877101693818</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.16048823640328</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6518950433496471</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8556497074493188</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.4440754677326941</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5980532058792294</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.190662602259053</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8738292780877743</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8344124237929238</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8690397094271156</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.3871875109810876</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1853398721468711</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7965291734775515</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5030381639647734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>foo!$C$1:$C$2</c:f>
+              <c:f>foo!$I$4:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>7.3499046911084598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5</c:v>
+                  <c:v>6.0722836750836811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6781813256126323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5738050957996776</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7745352316194234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.980905643080332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9709622983397894</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8437486633929971</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2372001305403799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.2895553125569021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8830942614243078</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6662143562406131</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6852586472288706</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0250199881011195</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.7822478468071781</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.2234956851654317</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.917881919654767</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.2289778249935068</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.9446082804183806</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5045937444920927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -874,7 +1111,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-6E9C-4615-AF91-2BAFD07EEF02}"/>
+              <c16:uniqueId val="{00000004-577E-47BB-B88C-1B9C2946EAF3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -886,13 +1123,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1287885567"/>
-        <c:axId val="1287882207"/>
+        <c:axId val="104330000"/>
+        <c:axId val="104327600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1287885567"/>
+        <c:axId val="104330000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -947,14 +1185,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1287882207"/>
+        <c:crossAx val="104327600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1287882207"/>
+        <c:axId val="104327600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1009,9 +1249,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1287885567"/>
+        <c:crossAx val="104330000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1618,23 +1859,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>498474</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>222249</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C7FA23-FA1B-4805-D51B-1EE23852DA20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20314D-2A98-ED66-75D0-54652B821C61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1653,10 +1894,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1976,376 +2213,579 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>10</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>6.5</v>
+      </c>
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>9.5</v>
+      <c r="H2">
+        <v>5.5</v>
+      </c>
+      <c r="I2">
+        <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <f ca="1">RAND()*(B$1-B$2)+B$2</f>
+        <v>2.6323580166833951</v>
+      </c>
+      <c r="C4">
+        <f ca="1">RAND()*(C$1-C$2)+C$2</f>
+        <v>2.6172358251650989</v>
+      </c>
+      <c r="E4">
+        <f ca="1">RAND()*(E$1-E$2)+E$2</f>
+        <v>7.6730961376143796</v>
+      </c>
+      <c r="F4">
+        <f ca="1">RAND()*(F$1-F$2)+F$2</f>
+        <v>5.8231447787602679</v>
+      </c>
+      <c r="H4">
+        <f ca="1">RAND()*(H$1-H$2)+H$2</f>
+        <v>3.3142502446550184</v>
+      </c>
+      <c r="I4">
+        <f ca="1">RAND()*(I$1-I$2)+I$2</f>
+        <v>7.3499046911084598</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <f ca="1">RAND()*(B$1-B$2)+B$2</f>
+        <v>2.5696587071088004</v>
+      </c>
+      <c r="C5">
+        <f ca="1">RAND()*(C$1-C$2)+C$2</f>
+        <v>0.63070141535573576</v>
+      </c>
+      <c r="E5">
+        <f ca="1">RAND()*(E$1-E$2)+E$2</f>
+        <v>8.5250198526210781</v>
+      </c>
+      <c r="F5">
+        <f ca="1">RAND()*(F$1-F$2)+F$2</f>
+        <v>8.0508216001796153</v>
+      </c>
+      <c r="H5">
+        <f ca="1">RAND()*(H$1-H$2)+H$2</f>
+        <v>3.4071566093533359</v>
+      </c>
+      <c r="I5">
+        <f ca="1">RAND()*(I$1-I$2)+I$2</f>
+        <v>6.0722836750836811</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <f ca="1">RAND()*(B$1-B$2)+B$2</f>
+        <v>4.9751854944753866</v>
+      </c>
+      <c r="C6">
+        <f ca="1">RAND()*(C$1-C$2)+C$2</f>
+        <v>1.4247736689704666</v>
+      </c>
+      <c r="E6">
+        <f ca="1">RAND()*(E$1-E$2)+E$2</f>
+        <v>6.8862449012605058</v>
+      </c>
+      <c r="F6">
+        <f ca="1">RAND()*(F$1-F$2)+F$2</f>
+        <v>6.0624562763239673</v>
+      </c>
+      <c r="H6">
+        <f ca="1">RAND()*(H$1-H$2)+H$2</f>
+        <v>5.2291651581276346</v>
+      </c>
+      <c r="I6">
+        <f ca="1">RAND()*(I$1-I$2)+I$2</f>
+        <v>5.6781813256126323</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>0</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <f ca="1">RAND()*(B$1-B$2)+B$2</f>
+        <v>3.1568963164360877</v>
+      </c>
+      <c r="C7">
+        <f ca="1">RAND()*(C$1-C$2)+C$2</f>
+        <v>1.9546350411836229</v>
+      </c>
+      <c r="E7">
+        <f ca="1">RAND()*(E$1-E$2)+E$2</f>
+        <v>8.1684164722507333</v>
+      </c>
+      <c r="F7">
+        <f ca="1">RAND()*(F$1-F$2)+F$2</f>
+        <v>9.0911843404996553</v>
+      </c>
+      <c r="H7">
+        <f ca="1">RAND()*(H$1-H$2)+H$2</f>
+        <v>4.1727072585277183</v>
+      </c>
+      <c r="I7">
+        <f ca="1">RAND()*(I$1-I$2)+I$2</f>
+        <v>6.5738050957996776</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2.5416289999999999</v>
-      </c>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8">
-        <v>2.5745070000000001</v>
+        <f ca="1">RAND()*(B$1-B$2)+B$2</f>
+        <v>4.4025496446878742</v>
       </c>
       <c r="C8">
-        <f>SQRT(SUMXMY2($B$1:$C$1,A8:B8))</f>
-        <v>2.9106405251576501</v>
-      </c>
-      <c r="D8">
-        <f>SQRT(SUMXMY2($B$2:$C$2,A8:B8))</f>
-        <v>9.8174019102148407</v>
+        <f ca="1">RAND()*(C$1-C$2)+C$2</f>
+        <v>2.6891850546722678</v>
       </c>
       <c r="E8">
-        <f>MIN(C8:D8)</f>
-        <v>2.9106405251576501</v>
+        <f ca="1">RAND()*(E$1-E$2)+E$2</f>
+        <v>7.8043487611454934</v>
+      </c>
+      <c r="F8">
+        <f ca="1">RAND()*(F$1-F$2)+F$2</f>
+        <v>9.39681742367444</v>
+      </c>
+      <c r="H8">
+        <f ca="1">RAND()*(H$1-H$2)+H$2</f>
+        <v>2.740613541588063</v>
+      </c>
+      <c r="I8">
+        <f ca="1">RAND()*(I$1-I$2)+I$2</f>
+        <v>5.7745352316194234</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>7.6161120000000002</v>
-      </c>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9">
-        <v>6.1319470000000003</v>
+        <f ca="1">RAND()*(B$1-B$2)+B$2</f>
+        <v>3.7589030365095573</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C22" si="0">SQRT(SUMXMY2($B$1:$C$1,A9:B9))</f>
-        <v>9.0751240766918997</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ref="D9:D22" si="1">SQRT(SUMXMY2($B$2:$C$2,A9:B9))</f>
-        <v>3.8591210148624513</v>
+        <f ca="1">RAND()*(C$1-C$2)+C$2</f>
+        <v>0.4213301466781747</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E22" si="2">MIN(C9:D9)</f>
-        <v>3.8591210148624513</v>
+        <f ca="1">RAND()*(E$1-E$2)+E$2</f>
+        <v>8.6595163964019299</v>
+      </c>
+      <c r="F9">
+        <f ca="1">RAND()*(F$1-F$2)+F$2</f>
+        <v>7.976833193037498</v>
+      </c>
+      <c r="H9">
+        <f ca="1">RAND()*(H$1-H$2)+H$2</f>
+        <v>4.3564000377922074</v>
+      </c>
+      <c r="I9">
+        <f ca="1">RAND()*(I$1-I$2)+I$2</f>
+        <v>5.980905643080332</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>8.0205590000000004</v>
-      </c>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10">
-        <v>4.5157299999999996</v>
+        <f ca="1">RAND()*(B$1-B$2)+B$2</f>
+        <v>1.4165298932695236</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>8.5255436838585847</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>5.1992011987786162</v>
+        <f ca="1">RAND()*(C$1-C$2)+C$2</f>
+        <v>2.4542592173479849</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
-        <v>5.1992011987786162</v>
+        <f ca="1">RAND()*(E$1-E$2)+E$2</f>
+        <v>8.383509673210364</v>
+      </c>
+      <c r="F10">
+        <f ca="1">RAND()*(F$1-F$2)+F$2</f>
+        <v>6.5001816400079324</v>
+      </c>
+      <c r="H10">
+        <f ca="1">RAND()*(H$1-H$2)+H$2</f>
+        <v>4.466877101693818</v>
+      </c>
+      <c r="I10">
+        <f ca="1">RAND()*(I$1-I$2)+I$2</f>
+        <v>7.9709622983397894</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>7.1902780000000002</v>
-      </c>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11">
-        <v>9.8310639999999996</v>
+        <f ca="1">RAND()*(B$1-B$2)+B$2</f>
+        <v>0.94660114622816371</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>11.481662557721334</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>2.3333279000989124</v>
+        <f ca="1">RAND()*(C$1-C$2)+C$2</f>
+        <v>1.0606890794939909</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
-        <v>2.3333279000989124</v>
+        <f ca="1">RAND()*(E$1-E$2)+E$2</f>
+        <v>8.9325657377337091</v>
+      </c>
+      <c r="F11">
+        <f ca="1">RAND()*(F$1-F$2)+F$2</f>
+        <v>8.3260212200869859</v>
+      </c>
+      <c r="H11">
+        <f ca="1">RAND()*(H$1-H$2)+H$2</f>
+        <v>3.16048823640328</v>
+      </c>
+      <c r="I11">
+        <f ca="1">RAND()*(I$1-I$2)+I$2</f>
+        <v>7.8437486633929971</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>2.4022399999999999</v>
-      </c>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12">
-        <v>3.8123499999999999</v>
+        <f ca="1">RAND()*(B$1-B$2)+B$2</f>
+        <v>1.9541278326410305</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>3.8197093528303956</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>9.0954691764691287</v>
+        <f ca="1">RAND()*(C$1-C$2)+C$2</f>
+        <v>0.48603740359005032</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
-        <v>3.8197093528303956</v>
+        <f ca="1">RAND()*(E$1-E$2)+E$2</f>
+        <v>8.6382769727089048</v>
+      </c>
+      <c r="F12">
+        <f ca="1">RAND()*(F$1-F$2)+F$2</f>
+        <v>6.623100740840635</v>
+      </c>
+      <c r="H12">
+        <f ca="1">RAND()*(H$1-H$2)+H$2</f>
+        <v>2.6518950433496471</v>
+      </c>
+      <c r="I12">
+        <f ca="1">RAND()*(I$1-I$2)+I$2</f>
+        <v>6.2372001305403799</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>6.6035120000000003</v>
-      </c>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13">
-        <v>7.846965</v>
+        <f ca="1">RAND()*(B$1-B$2)+B$2</f>
+        <v>2.8802172525623613</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>9.5514791234326104</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>3.334991371108627</v>
+        <f ca="1">RAND()*(C$1-C$2)+C$2</f>
+        <v>1.9150439979469489</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
-        <v>3.334991371108627</v>
+        <f ca="1">RAND()*(E$1-E$2)+E$2</f>
+        <v>7.8676157185187598</v>
+      </c>
+      <c r="F13">
+        <f ca="1">RAND()*(F$1-F$2)+F$2</f>
+        <v>8.1321013185671482</v>
+      </c>
+      <c r="H13">
+        <f ca="1">RAND()*(H$1-H$2)+H$2</f>
+        <v>3.8556497074493188</v>
+      </c>
+      <c r="I13">
+        <f ca="1">RAND()*(I$1-I$2)+I$2</f>
+        <v>6.2895553125569021</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>3.9710040000000002</v>
-      </c>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14">
-        <v>8.486739</v>
+        <f ca="1">RAND()*(B$1-B$2)+B$2</f>
+        <v>2.1164419888833574</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>8.7083792190129738</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>5.62107593100618</v>
+        <f ca="1">RAND()*(C$1-C$2)+C$2</f>
+        <v>0.23343998770424645</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
-        <v>5.62107593100618</v>
+        <f ca="1">RAND()*(E$1-E$2)+E$2</f>
+        <v>7.6021079415808721</v>
+      </c>
+      <c r="F14">
+        <f ca="1">RAND()*(F$1-F$2)+F$2</f>
+        <v>9.7753188731348963</v>
+      </c>
+      <c r="H14">
+        <f ca="1">RAND()*(H$1-H$2)+H$2</f>
+        <v>5.4440754677326941</v>
+      </c>
+      <c r="I14">
+        <f ca="1">RAND()*(I$1-I$2)+I$2</f>
+        <v>5.8830942614243078</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>1.864852</v>
-      </c>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15">
-        <v>4.898962</v>
+        <f ca="1">RAND()*(B$1-B$2)+B$2</f>
+        <v>1.5467341547166402</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>4.6058319182692715</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>8.9143163315729375</v>
+        <f ca="1">RAND()*(C$1-C$2)+C$2</f>
+        <v>0.13706544646434982</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
-        <v>4.6058319182692715</v>
+        <f ca="1">RAND()*(E$1-E$2)+E$2</f>
+        <v>8.7341014926232532</v>
+      </c>
+      <c r="F15">
+        <f ca="1">RAND()*(F$1-F$2)+F$2</f>
+        <v>6.1563904900401951</v>
+      </c>
+      <c r="H15">
+        <f ca="1">RAND()*(H$1-H$2)+H$2</f>
+        <v>3.5980532058792294</v>
+      </c>
+      <c r="I15">
+        <f ca="1">RAND()*(I$1-I$2)+I$2</f>
+        <v>5.6662143562406131</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>5.2632430000000001</v>
-      </c>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16">
-        <v>9.6651000000000001E-2</v>
+        <f ca="1">RAND()*(B$1-B$2)+B$2</f>
+        <v>1.4894745571356509</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>4.7802901891883094</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>10.313732704159538</v>
+        <f ca="1">RAND()*(C$1-C$2)+C$2</f>
+        <v>0.38198546723883908</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
-        <v>4.7802901891883094</v>
+        <f ca="1">RAND()*(E$1-E$2)+E$2</f>
+        <v>7.5612318080779506</v>
+      </c>
+      <c r="F16">
+        <f ca="1">RAND()*(F$1-F$2)+F$2</f>
+        <v>8.943994747528949</v>
+      </c>
+      <c r="H16">
+        <f ca="1">RAND()*(H$1-H$2)+H$2</f>
+        <v>5.190662602259053</v>
+      </c>
+      <c r="I16">
+        <f ca="1">RAND()*(I$1-I$2)+I$2</f>
+        <v>6.6852586472288706</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>5.4283640000000002</v>
-      </c>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17">
-        <v>5.1702250000000003</v>
+        <f ca="1">RAND()*(B$1-B$2)+B$2</f>
+        <v>0.62377028056304462</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>6.7896813818559272</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>5.9434982348042293</v>
+        <f ca="1">RAND()*(C$1-C$2)+C$2</f>
+        <v>0.42611071065918893</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
-        <v>5.9434982348042293</v>
+        <f ca="1">RAND()*(E$1-E$2)+E$2</f>
+        <v>8.7447563867597946</v>
+      </c>
+      <c r="F17">
+        <f ca="1">RAND()*(F$1-F$2)+F$2</f>
+        <v>7.0616770522756216</v>
+      </c>
+      <c r="H17">
+        <f ca="1">RAND()*(H$1-H$2)+H$2</f>
+        <v>2.8738292780877743</v>
+      </c>
+      <c r="I17">
+        <f ca="1">RAND()*(I$1-I$2)+I$2</f>
+        <v>6.0250199881011195</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>9.0172000000000002E-2</v>
-      </c>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18">
-        <v>6.3690150000000001</v>
+        <f ca="1">RAND()*(B$1-B$2)+B$2</f>
+        <v>2.93138521007829</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>5.883306558374211</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>9.9170524885073075</v>
+        <f ca="1">RAND()*(C$1-C$2)+C$2</f>
+        <v>2.615504738021861</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
-        <v>5.883306558374211</v>
+        <f ca="1">RAND()*(E$1-E$2)+E$2</f>
+        <v>6.6291443245603894</v>
+      </c>
+      <c r="F18">
+        <f ca="1">RAND()*(F$1-F$2)+F$2</f>
+        <v>8.0292897501746516</v>
+      </c>
+      <c r="H18">
+        <f ca="1">RAND()*(H$1-H$2)+H$2</f>
+        <v>2.8344124237929238</v>
+      </c>
+      <c r="I18">
+        <f ca="1">RAND()*(I$1-I$2)+I$2</f>
+        <v>5.7822478468071781</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>0.67159999999999997</v>
-      </c>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19">
-        <v>1.1700269999999999</v>
+        <f ca="1">RAND()*(B$1-B$2)+B$2</f>
+        <v>1.7869856800852184</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0.69165218190142352</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>12.137919786385517</v>
+        <f ca="1">RAND()*(C$1-C$2)+C$2</f>
+        <v>1.2993958451491467</v>
       </c>
       <c r="E19">
-        <f t="shared" si="2"/>
-        <v>0.69165218190142352</v>
+        <f ca="1">RAND()*(E$1-E$2)+E$2</f>
+        <v>6.5395376705951316</v>
+      </c>
+      <c r="F19">
+        <f ca="1">RAND()*(F$1-F$2)+F$2</f>
+        <v>6.5927872713438154</v>
+      </c>
+      <c r="H19">
+        <f ca="1">RAND()*(H$1-H$2)+H$2</f>
+        <v>2.8690397094271156</v>
+      </c>
+      <c r="I19">
+        <f ca="1">RAND()*(I$1-I$2)+I$2</f>
+        <v>7.2234956851654317</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>1.519242</v>
-      </c>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20">
-        <v>4.4821879999999998</v>
+        <f ca="1">RAND()*(B$1-B$2)+B$2</f>
+        <v>1.6195165290695286</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>4.1105565951471821</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>9.4271382466742253</v>
+        <f ca="1">RAND()*(C$1-C$2)+C$2</f>
+        <v>1.1549501081993427</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
-        <v>4.1105565951471821</v>
+        <f ca="1">RAND()*(E$1-E$2)+E$2</f>
+        <v>7.5516803768753284</v>
+      </c>
+      <c r="F20">
+        <f ca="1">RAND()*(F$1-F$2)+F$2</f>
+        <v>7.258619016361135</v>
+      </c>
+      <c r="H20">
+        <f ca="1">RAND()*(H$1-H$2)+H$2</f>
+        <v>4.3871875109810876</v>
+      </c>
+      <c r="I20">
+        <f ca="1">RAND()*(I$1-I$2)+I$2</f>
+        <v>6.917881919654767</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>5.2632849999999998</v>
-      </c>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21">
-        <v>0.68488700000000002</v>
+        <f ca="1">RAND()*(B$1-B$2)+B$2</f>
+        <v>4.4035133654849652</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>4.766871845769928</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>9.7803870676979852</v>
+        <f ca="1">RAND()*(C$1-C$2)+C$2</f>
+        <v>1.2443141745334152</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
-        <v>4.766871845769928</v>
+        <f ca="1">RAND()*(E$1-E$2)+E$2</f>
+        <v>8.8341212622936176</v>
+      </c>
+      <c r="F21">
+        <f ca="1">RAND()*(F$1-F$2)+F$2</f>
+        <v>6.1285166739670078</v>
+      </c>
+      <c r="H21">
+        <f ca="1">RAND()*(H$1-H$2)+H$2</f>
+        <v>5.1853398721468711</v>
+      </c>
+      <c r="I21">
+        <f ca="1">RAND()*(I$1-I$2)+I$2</f>
+        <v>7.2289778249935068</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>8.8238000000000003</v>
-      </c>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22">
-        <v>0.29523100000000002</v>
+        <f ca="1">RAND()*(B$1-B$2)+B$2</f>
+        <v>3.8881324236397723</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>8.3263183210444822</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>9.2295730553130682</v>
+        <f ca="1">RAND()*(C$1-C$2)+C$2</f>
+        <v>0.62354881774007631</v>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
-        <v>8.3263183210444822</v>
+        <f ca="1">RAND()*(E$1-E$2)+E$2</f>
+        <v>6.8120667220925935</v>
+      </c>
+      <c r="F22">
+        <f ca="1">RAND()*(F$1-F$2)+F$2</f>
+        <v>5.5744921824233273</v>
+      </c>
+      <c r="H22">
+        <f ca="1">RAND()*(H$1-H$2)+H$2</f>
+        <v>2.7965291734775515</v>
+      </c>
+      <c r="I22">
+        <f ca="1">RAND()*(I$1-I$2)+I$2</f>
+        <v>5.9446082804183806</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <f ca="1">RAND()*(B$1-B$2)+B$2</f>
+        <v>3.9506089644321216</v>
+      </c>
+      <c r="C23">
+        <f ca="1">RAND()*(C$1-C$2)+C$2</f>
+        <v>2.0176969087665739</v>
+      </c>
+      <c r="E23">
+        <f ca="1">RAND()*(E$1-E$2)+E$2</f>
+        <v>9.8335592163320609</v>
+      </c>
+      <c r="F23">
+        <f ca="1">RAND()*(F$1-F$2)+F$2</f>
+        <v>9.0635481140850338</v>
+      </c>
+      <c r="H23">
+        <f ca="1">RAND()*(H$1-H$2)+H$2</f>
+        <v>4.5030381639647734</v>
+      </c>
+      <c r="I23">
+        <f ca="1">RAND()*(I$1-I$2)+I$2</f>
+        <v>5.5045937444920927</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/programs/tests/prgm301.xlsx
+++ b/programs/tests/prgm301.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5D7DE6-1B56-4F25-BB6C-E207DBC91D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEA40F3-5BA2-480E-84BF-F8EC34BBD5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="1690" windowWidth="19370" windowHeight="12510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="foo" sheetId="1" r:id="rId1"/>
+    <sheet name="random" sheetId="1" r:id="rId1"/>
+    <sheet name="static" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -181,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +362,24 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -522,8 +541,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -632,138 +654,138 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>foo!$B$4:$B$23</c:f>
+              <c:f>random!$B$4:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.6323580166833951</c:v>
+                  <c:v>2.9939707648389113</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5696587071088004</c:v>
+                  <c:v>0.43999880466952246</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9751854944753866</c:v>
+                  <c:v>1.8113133747286132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1568963164360877</c:v>
+                  <c:v>4.1166252400950167</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4025496446878742</c:v>
+                  <c:v>2.9865124929321341</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7589030365095573</c:v>
+                  <c:v>1.8331408447654689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4165298932695236</c:v>
+                  <c:v>2.726125949721498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94660114622816371</c:v>
+                  <c:v>2.8700892826226343</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9541278326410305</c:v>
+                  <c:v>1.1966135612997075</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8802172525623613</c:v>
+                  <c:v>4.4554491468969122</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1164419888833574</c:v>
+                  <c:v>4.0938778271696155</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5467341547166402</c:v>
+                  <c:v>4.4007693094469573</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4894745571356509</c:v>
+                  <c:v>2.6191606948435271</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.62377028056304462</c:v>
+                  <c:v>0.92340194883408999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.93138521007829</c:v>
+                  <c:v>1.0409673144837206</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7869856800852184</c:v>
+                  <c:v>3.3412107026395277</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6195165290695286</c:v>
+                  <c:v>1.2924580332004538</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4035133654849652</c:v>
+                  <c:v>1.6927755943636769</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8881324236397723</c:v>
+                  <c:v>1.0757363731284741</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.9506089644321216</c:v>
+                  <c:v>3.4585050097225629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>foo!$C$4:$C$23</c:f>
+              <c:f>random!$C$4:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.6172358251650989</c:v>
+                  <c:v>2.3759076098717653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63070141535573576</c:v>
+                  <c:v>2.6938896821626384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4247736689704666</c:v>
+                  <c:v>0.74652987263891157</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9546350411836229</c:v>
+                  <c:v>1.52614751058133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6891850546722678</c:v>
+                  <c:v>0.2660076868273723</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4213301466781747</c:v>
+                  <c:v>1.9535675959918142</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4542592173479849</c:v>
+                  <c:v>1.4645461831558315</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0606890794939909</c:v>
+                  <c:v>1.3208614728325914</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.48603740359005032</c:v>
+                  <c:v>0.74411595660947305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9150439979469489</c:v>
+                  <c:v>0.68670758041971425</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.23343998770424645</c:v>
+                  <c:v>0.36517504349053476</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13706544646434982</c:v>
+                  <c:v>2.6463693219940359</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38198546723883908</c:v>
+                  <c:v>2.6479366424549657</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.42611071065918893</c:v>
+                  <c:v>2.2733319911942003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.615504738021861</c:v>
+                  <c:v>1.5362211217393531</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2993958451491467</c:v>
+                  <c:v>0.24536834723713552</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1549501081993427</c:v>
+                  <c:v>1.1630358702021717</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2443141745334152</c:v>
+                  <c:v>2.3267864163910272</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.62354881774007631</c:v>
+                  <c:v>2.7536506540329424</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0176969087665739</c:v>
+                  <c:v>1.4744465779744327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -802,138 +824,138 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>foo!$E$4:$E$23</c:f>
+              <c:f>random!$E$4:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>7.6730961376143796</c:v>
+                  <c:v>6.6982994034058683</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5250198526210781</c:v>
+                  <c:v>6.8696542213872815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8862449012605058</c:v>
+                  <c:v>6.6855995295541719</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1684164722507333</c:v>
+                  <c:v>7.943640823035917</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8043487611454934</c:v>
+                  <c:v>6.8518961195570318</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6595163964019299</c:v>
+                  <c:v>6.5218979310800052</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.383509673210364</c:v>
+                  <c:v>6.9099772745935866</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.9325657377337091</c:v>
+                  <c:v>9.303902665993963</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.6382769727089048</c:v>
+                  <c:v>8.6379716411756391</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8676157185187598</c:v>
+                  <c:v>9.0473590926207024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.6021079415808721</c:v>
+                  <c:v>9.3103955777067497</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.7341014926232532</c:v>
+                  <c:v>9.993873146460972</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.5612318080779506</c:v>
+                  <c:v>7.2444661101000278</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.7447563867597946</c:v>
+                  <c:v>7.1220578834130048</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6291443245603894</c:v>
+                  <c:v>8.3860882773936218</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.5395376705951316</c:v>
+                  <c:v>8.3108011442719629</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.5516803768753284</c:v>
+                  <c:v>8.6868678589154626</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.8341212622936176</c:v>
+                  <c:v>9.4990683945409646</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.8120667220925935</c:v>
+                  <c:v>9.4205319484592316</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.8335592163320609</c:v>
+                  <c:v>7.5046387995057211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>foo!$F$4:$F$23</c:f>
+              <c:f>random!$F$4:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5.8231447787602679</c:v>
+                  <c:v>5.0395139737789325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0508216001796153</c:v>
+                  <c:v>6.8296012216090194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0624562763239673</c:v>
+                  <c:v>6.2972917431520319</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0911843404996553</c:v>
+                  <c:v>7.04893436125713</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.39681742367444</c:v>
+                  <c:v>9.3184067603679512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.976833193037498</c:v>
+                  <c:v>9.517802742253032</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5001816400079324</c:v>
+                  <c:v>6.9790405008085896</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3260212200869859</c:v>
+                  <c:v>6.6622525585514873</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.623100740840635</c:v>
+                  <c:v>8.7584439452159</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.1321013185671482</c:v>
+                  <c:v>7.0830146886899668</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.7753188731348963</c:v>
+                  <c:v>7.1328838112174493</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.1563904900401951</c:v>
+                  <c:v>5.2426612098612608</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.943994747528949</c:v>
+                  <c:v>7.2720473890809467</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.0616770522756216</c:v>
+                  <c:v>8.1874180923798292</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.0292897501746516</c:v>
+                  <c:v>5.2702541514780421</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.5927872713438154</c:v>
+                  <c:v>7.6470096635673199</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.258619016361135</c:v>
+                  <c:v>6.9683202307764249</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.1285166739670078</c:v>
+                  <c:v>9.7532933892545586</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.5744921824233273</c:v>
+                  <c:v>6.6275432268149164</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.0635481140850338</c:v>
+                  <c:v>8.9285619066978139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,138 +994,138 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>foo!$H$4:$H$23</c:f>
+              <c:f>random!$H$4:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.3142502446550184</c:v>
+                  <c:v>4.6476801621879495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4071566093533359</c:v>
+                  <c:v>4.8043487785181735</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2291651581276346</c:v>
+                  <c:v>3.6384162224328782</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1727072585277183</c:v>
+                  <c:v>5.0038941443502827</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.740613541588063</c:v>
+                  <c:v>4.4874548218617782</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3564000377922074</c:v>
+                  <c:v>2.9640475481929394</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.466877101693818</c:v>
+                  <c:v>4.5359009893577023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.16048823640328</c:v>
+                  <c:v>4.3096399458946966</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6518950433496471</c:v>
+                  <c:v>3.5784923194725513</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8556497074493188</c:v>
+                  <c:v>2.0812516540371924</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.4440754677326941</c:v>
+                  <c:v>4.3152453923404863</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5980532058792294</c:v>
+                  <c:v>4.1202596166413921</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.190662602259053</c:v>
+                  <c:v>2.2365288078957981</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8738292780877743</c:v>
+                  <c:v>3.2052463639832767</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8344124237929238</c:v>
+                  <c:v>3.4475004224670664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8690397094271156</c:v>
+                  <c:v>3.4668896501453665</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.3871875109810876</c:v>
+                  <c:v>3.5924285103221782</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.1853398721468711</c:v>
+                  <c:v>2.6930683393258179</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.7965291734775515</c:v>
+                  <c:v>5.3714917750530935</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.5030381639647734</c:v>
+                  <c:v>3.2657496139073552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>foo!$I$4:$I$23</c:f>
+              <c:f>random!$I$4:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>7.3499046911084598</c:v>
+                  <c:v>6.6319928103660377</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0722836750836811</c:v>
+                  <c:v>7.9574165500819038</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6781813256126323</c:v>
+                  <c:v>6.694120724444911</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5738050957996776</c:v>
+                  <c:v>7.4569098547116992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7745352316194234</c:v>
+                  <c:v>5.5742706845286474</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.980905643080332</c:v>
+                  <c:v>6.3683312098643583</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9709622983397894</c:v>
+                  <c:v>5.7777240225037803</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8437486633929971</c:v>
+                  <c:v>6.316164451606892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.2372001305403799</c:v>
+                  <c:v>7.1521381559326818</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2895553125569021</c:v>
+                  <c:v>6.0046884995598608</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.8830942614243078</c:v>
+                  <c:v>5.8211695168085136</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.6662143562406131</c:v>
+                  <c:v>6.1984510034932789</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.6852586472288706</c:v>
+                  <c:v>7.7244756558350929</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0250199881011195</c:v>
+                  <c:v>6.4558047386218824</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.7822478468071781</c:v>
+                  <c:v>7.7243804928628919</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.2234956851654317</c:v>
+                  <c:v>6.1899775521062006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.917881919654767</c:v>
+                  <c:v>7.6529873686477785</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.2289778249935068</c:v>
+                  <c:v>5.768959697408155</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.9446082804183806</c:v>
+                  <c:v>5.6260322497364701</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.5045937444920927</c:v>
+                  <c:v>7.3132612047277483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1112,6 +1134,723 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-577E-47BB-B88C-1B9C2946EAF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="104330000"/>
+        <c:axId val="104327600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="104330000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="104327600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="104327600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="104330000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Group 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>random!$B$4:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.9939707648389113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43999880466952246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8113133747286132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1166252400950167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9865124929321341</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8331408447654689</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.726125949721498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8700892826226343</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1966135612997075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4554491468969122</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0938778271696155</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4007693094469573</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6191606948435271</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92340194883408999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0409673144837206</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3412107026395277</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2924580332004538</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6927755943636769</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0757363731284741</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4585050097225629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>random!$C$4:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.3759076098717653</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6938896821626384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74652987263891157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.52614751058133</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2660076868273723</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9535675959918142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4645461831558315</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3208614728325914</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74411595660947305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68670758041971425</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36517504349053476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6463693219940359</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6479366424549657</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2733319911942003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5362211217393531</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.24536834723713552</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1630358702021717</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3267864163910272</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7536506540329424</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4744465779744327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CBF-4BA4-BFA8-60A1C006BA9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>random!$E$4:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6.6982994034058683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8696542213872815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6855995295541719</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.943640823035917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8518961195570318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5218979310800052</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9099772745935866</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.303902665993963</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6379716411756391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0473590926207024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3103955777067497</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.993873146460972</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2444661101000278</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.1220578834130048</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3860882773936218</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.3108011442719629</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6868678589154626</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.4990683945409646</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.4205319484592316</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.5046387995057211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>random!$F$4:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.0395139737789325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8296012216090194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2972917431520319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.04893436125713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3184067603679512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.517802742253032</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9790405008085896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6622525585514873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7584439452159</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0830146886899668</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1328838112174493</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2426612098612608</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2720473890809467</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.1874180923798292</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2702541514780421</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.6470096635673199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9683202307764249</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.7532933892545586</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.6275432268149164</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.9285619066978139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8CBF-4BA4-BFA8-60A1C006BA9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>random!$H$4:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.6476801621879495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8043487785181735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6384162224328782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0038941443502827</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4874548218617782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9640475481929394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5359009893577023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3096399458946966</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5784923194725513</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0812516540371924</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3152453923404863</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1202596166413921</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2365288078957981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2052463639832767</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4475004224670664</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4668896501453665</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5924285103221782</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6930683393258179</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3714917750530935</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2657496139073552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>random!$I$4:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6.6319928103660377</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9574165500819038</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.694120724444911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4569098547116992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5742706845286474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3683312098643583</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7777240225037803</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.316164451606892</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1521381559326818</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0046884995598608</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8211695168085136</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1984510034932789</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.7244756558350929</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4558047386218824</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.7243804928628919</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1899775521062006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.6529873686477785</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.768959697408155</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.6260322497364701</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.3132612047277483</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8CBF-4BA4-BFA8-60A1C006BA9D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1339,6 +2078,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1855,20 +2634,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>498474</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>473074</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>222249</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>196849</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1880,6 +3175,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD21BC0-4EF2-4B48-A94D-4EFC28D987B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2215,8 +3553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2270,521 +3608,521 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4">
         <f ca="1">RAND()*(B$1-B$2)+B$2</f>
-        <v>2.6323580166833951</v>
+        <v>2.9939707648389113</v>
       </c>
       <c r="C4">
         <f ca="1">RAND()*(C$1-C$2)+C$2</f>
-        <v>2.6172358251650989</v>
+        <v>2.3759076098717653</v>
       </c>
       <c r="E4">
         <f ca="1">RAND()*(E$1-E$2)+E$2</f>
-        <v>7.6730961376143796</v>
+        <v>6.6982994034058683</v>
       </c>
       <c r="F4">
         <f ca="1">RAND()*(F$1-F$2)+F$2</f>
-        <v>5.8231447787602679</v>
+        <v>5.0395139737789325</v>
       </c>
       <c r="H4">
         <f ca="1">RAND()*(H$1-H$2)+H$2</f>
-        <v>3.3142502446550184</v>
+        <v>4.6476801621879495</v>
       </c>
       <c r="I4">
         <f ca="1">RAND()*(I$1-I$2)+I$2</f>
-        <v>7.3499046911084598</v>
+        <v>6.6319928103660377</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5">
         <f ca="1">RAND()*(B$1-B$2)+B$2</f>
-        <v>2.5696587071088004</v>
+        <v>0.43999880466952246</v>
       </c>
       <c r="C5">
         <f ca="1">RAND()*(C$1-C$2)+C$2</f>
-        <v>0.63070141535573576</v>
+        <v>2.6938896821626384</v>
       </c>
       <c r="E5">
         <f ca="1">RAND()*(E$1-E$2)+E$2</f>
-        <v>8.5250198526210781</v>
+        <v>6.8696542213872815</v>
       </c>
       <c r="F5">
         <f ca="1">RAND()*(F$1-F$2)+F$2</f>
-        <v>8.0508216001796153</v>
+        <v>6.8296012216090194</v>
       </c>
       <c r="H5">
         <f ca="1">RAND()*(H$1-H$2)+H$2</f>
-        <v>3.4071566093533359</v>
+        <v>4.8043487785181735</v>
       </c>
       <c r="I5">
         <f ca="1">RAND()*(I$1-I$2)+I$2</f>
-        <v>6.0722836750836811</v>
+        <v>7.9574165500819038</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6">
         <f ca="1">RAND()*(B$1-B$2)+B$2</f>
-        <v>4.9751854944753866</v>
+        <v>1.8113133747286132</v>
       </c>
       <c r="C6">
         <f ca="1">RAND()*(C$1-C$2)+C$2</f>
-        <v>1.4247736689704666</v>
+        <v>0.74652987263891157</v>
       </c>
       <c r="E6">
         <f ca="1">RAND()*(E$1-E$2)+E$2</f>
-        <v>6.8862449012605058</v>
+        <v>6.6855995295541719</v>
       </c>
       <c r="F6">
         <f ca="1">RAND()*(F$1-F$2)+F$2</f>
-        <v>6.0624562763239673</v>
+        <v>6.2972917431520319</v>
       </c>
       <c r="H6">
         <f ca="1">RAND()*(H$1-H$2)+H$2</f>
-        <v>5.2291651581276346</v>
+        <v>3.6384162224328782</v>
       </c>
       <c r="I6">
         <f ca="1">RAND()*(I$1-I$2)+I$2</f>
-        <v>5.6781813256126323</v>
+        <v>6.694120724444911</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7">
         <f ca="1">RAND()*(B$1-B$2)+B$2</f>
-        <v>3.1568963164360877</v>
+        <v>4.1166252400950167</v>
       </c>
       <c r="C7">
         <f ca="1">RAND()*(C$1-C$2)+C$2</f>
-        <v>1.9546350411836229</v>
+        <v>1.52614751058133</v>
       </c>
       <c r="E7">
         <f ca="1">RAND()*(E$1-E$2)+E$2</f>
-        <v>8.1684164722507333</v>
+        <v>7.943640823035917</v>
       </c>
       <c r="F7">
         <f ca="1">RAND()*(F$1-F$2)+F$2</f>
-        <v>9.0911843404996553</v>
+        <v>7.04893436125713</v>
       </c>
       <c r="H7">
         <f ca="1">RAND()*(H$1-H$2)+H$2</f>
-        <v>4.1727072585277183</v>
+        <v>5.0038941443502827</v>
       </c>
       <c r="I7">
         <f ca="1">RAND()*(I$1-I$2)+I$2</f>
-        <v>6.5738050957996776</v>
+        <v>7.4569098547116992</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8">
         <f ca="1">RAND()*(B$1-B$2)+B$2</f>
-        <v>4.4025496446878742</v>
+        <v>2.9865124929321341</v>
       </c>
       <c r="C8">
         <f ca="1">RAND()*(C$1-C$2)+C$2</f>
-        <v>2.6891850546722678</v>
+        <v>0.2660076868273723</v>
       </c>
       <c r="E8">
         <f ca="1">RAND()*(E$1-E$2)+E$2</f>
-        <v>7.8043487611454934</v>
+        <v>6.8518961195570318</v>
       </c>
       <c r="F8">
         <f ca="1">RAND()*(F$1-F$2)+F$2</f>
-        <v>9.39681742367444</v>
+        <v>9.3184067603679512</v>
       </c>
       <c r="H8">
         <f ca="1">RAND()*(H$1-H$2)+H$2</f>
-        <v>2.740613541588063</v>
+        <v>4.4874548218617782</v>
       </c>
       <c r="I8">
         <f ca="1">RAND()*(I$1-I$2)+I$2</f>
-        <v>5.7745352316194234</v>
+        <v>5.5742706845286474</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9">
         <f ca="1">RAND()*(B$1-B$2)+B$2</f>
-        <v>3.7589030365095573</v>
+        <v>1.8331408447654689</v>
       </c>
       <c r="C9">
         <f ca="1">RAND()*(C$1-C$2)+C$2</f>
-        <v>0.4213301466781747</v>
+        <v>1.9535675959918142</v>
       </c>
       <c r="E9">
         <f ca="1">RAND()*(E$1-E$2)+E$2</f>
-        <v>8.6595163964019299</v>
+        <v>6.5218979310800052</v>
       </c>
       <c r="F9">
         <f ca="1">RAND()*(F$1-F$2)+F$2</f>
-        <v>7.976833193037498</v>
+        <v>9.517802742253032</v>
       </c>
       <c r="H9">
         <f ca="1">RAND()*(H$1-H$2)+H$2</f>
-        <v>4.3564000377922074</v>
+        <v>2.9640475481929394</v>
       </c>
       <c r="I9">
         <f ca="1">RAND()*(I$1-I$2)+I$2</f>
-        <v>5.980905643080332</v>
+        <v>6.3683312098643583</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10">
         <f ca="1">RAND()*(B$1-B$2)+B$2</f>
-        <v>1.4165298932695236</v>
+        <v>2.726125949721498</v>
       </c>
       <c r="C10">
         <f ca="1">RAND()*(C$1-C$2)+C$2</f>
-        <v>2.4542592173479849</v>
+        <v>1.4645461831558315</v>
       </c>
       <c r="E10">
         <f ca="1">RAND()*(E$1-E$2)+E$2</f>
-        <v>8.383509673210364</v>
+        <v>6.9099772745935866</v>
       </c>
       <c r="F10">
         <f ca="1">RAND()*(F$1-F$2)+F$2</f>
-        <v>6.5001816400079324</v>
+        <v>6.9790405008085896</v>
       </c>
       <c r="H10">
         <f ca="1">RAND()*(H$1-H$2)+H$2</f>
-        <v>4.466877101693818</v>
+        <v>4.5359009893577023</v>
       </c>
       <c r="I10">
         <f ca="1">RAND()*(I$1-I$2)+I$2</f>
-        <v>7.9709622983397894</v>
+        <v>5.7777240225037803</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11">
         <f ca="1">RAND()*(B$1-B$2)+B$2</f>
-        <v>0.94660114622816371</v>
+        <v>2.8700892826226343</v>
       </c>
       <c r="C11">
         <f ca="1">RAND()*(C$1-C$2)+C$2</f>
-        <v>1.0606890794939909</v>
+        <v>1.3208614728325914</v>
       </c>
       <c r="E11">
         <f ca="1">RAND()*(E$1-E$2)+E$2</f>
-        <v>8.9325657377337091</v>
+        <v>9.303902665993963</v>
       </c>
       <c r="F11">
         <f ca="1">RAND()*(F$1-F$2)+F$2</f>
-        <v>8.3260212200869859</v>
+        <v>6.6622525585514873</v>
       </c>
       <c r="H11">
         <f ca="1">RAND()*(H$1-H$2)+H$2</f>
-        <v>3.16048823640328</v>
+        <v>4.3096399458946966</v>
       </c>
       <c r="I11">
         <f ca="1">RAND()*(I$1-I$2)+I$2</f>
-        <v>7.8437486633929971</v>
+        <v>6.316164451606892</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12">
         <f ca="1">RAND()*(B$1-B$2)+B$2</f>
-        <v>1.9541278326410305</v>
+        <v>1.1966135612997075</v>
       </c>
       <c r="C12">
         <f ca="1">RAND()*(C$1-C$2)+C$2</f>
-        <v>0.48603740359005032</v>
+        <v>0.74411595660947305</v>
       </c>
       <c r="E12">
         <f ca="1">RAND()*(E$1-E$2)+E$2</f>
-        <v>8.6382769727089048</v>
+        <v>8.6379716411756391</v>
       </c>
       <c r="F12">
         <f ca="1">RAND()*(F$1-F$2)+F$2</f>
-        <v>6.623100740840635</v>
+        <v>8.7584439452159</v>
       </c>
       <c r="H12">
         <f ca="1">RAND()*(H$1-H$2)+H$2</f>
-        <v>2.6518950433496471</v>
+        <v>3.5784923194725513</v>
       </c>
       <c r="I12">
         <f ca="1">RAND()*(I$1-I$2)+I$2</f>
-        <v>6.2372001305403799</v>
+        <v>7.1521381559326818</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13">
         <f ca="1">RAND()*(B$1-B$2)+B$2</f>
-        <v>2.8802172525623613</v>
+        <v>4.4554491468969122</v>
       </c>
       <c r="C13">
         <f ca="1">RAND()*(C$1-C$2)+C$2</f>
-        <v>1.9150439979469489</v>
+        <v>0.68670758041971425</v>
       </c>
       <c r="E13">
         <f ca="1">RAND()*(E$1-E$2)+E$2</f>
-        <v>7.8676157185187598</v>
+        <v>9.0473590926207024</v>
       </c>
       <c r="F13">
         <f ca="1">RAND()*(F$1-F$2)+F$2</f>
-        <v>8.1321013185671482</v>
+        <v>7.0830146886899668</v>
       </c>
       <c r="H13">
         <f ca="1">RAND()*(H$1-H$2)+H$2</f>
-        <v>3.8556497074493188</v>
+        <v>2.0812516540371924</v>
       </c>
       <c r="I13">
         <f ca="1">RAND()*(I$1-I$2)+I$2</f>
-        <v>6.2895553125569021</v>
+        <v>6.0046884995598608</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14">
         <f ca="1">RAND()*(B$1-B$2)+B$2</f>
-        <v>2.1164419888833574</v>
+        <v>4.0938778271696155</v>
       </c>
       <c r="C14">
         <f ca="1">RAND()*(C$1-C$2)+C$2</f>
-        <v>0.23343998770424645</v>
+        <v>0.36517504349053476</v>
       </c>
       <c r="E14">
         <f ca="1">RAND()*(E$1-E$2)+E$2</f>
-        <v>7.6021079415808721</v>
+        <v>9.3103955777067497</v>
       </c>
       <c r="F14">
         <f ca="1">RAND()*(F$1-F$2)+F$2</f>
-        <v>9.7753188731348963</v>
+        <v>7.1328838112174493</v>
       </c>
       <c r="H14">
         <f ca="1">RAND()*(H$1-H$2)+H$2</f>
-        <v>5.4440754677326941</v>
+        <v>4.3152453923404863</v>
       </c>
       <c r="I14">
         <f ca="1">RAND()*(I$1-I$2)+I$2</f>
-        <v>5.8830942614243078</v>
+        <v>5.8211695168085136</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15">
         <f ca="1">RAND()*(B$1-B$2)+B$2</f>
-        <v>1.5467341547166402</v>
+        <v>4.4007693094469573</v>
       </c>
       <c r="C15">
         <f ca="1">RAND()*(C$1-C$2)+C$2</f>
-        <v>0.13706544646434982</v>
+        <v>2.6463693219940359</v>
       </c>
       <c r="E15">
         <f ca="1">RAND()*(E$1-E$2)+E$2</f>
-        <v>8.7341014926232532</v>
+        <v>9.993873146460972</v>
       </c>
       <c r="F15">
         <f ca="1">RAND()*(F$1-F$2)+F$2</f>
-        <v>6.1563904900401951</v>
+        <v>5.2426612098612608</v>
       </c>
       <c r="H15">
         <f ca="1">RAND()*(H$1-H$2)+H$2</f>
-        <v>3.5980532058792294</v>
+        <v>4.1202596166413921</v>
       </c>
       <c r="I15">
         <f ca="1">RAND()*(I$1-I$2)+I$2</f>
-        <v>5.6662143562406131</v>
+        <v>6.1984510034932789</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16">
         <f ca="1">RAND()*(B$1-B$2)+B$2</f>
-        <v>1.4894745571356509</v>
+        <v>2.6191606948435271</v>
       </c>
       <c r="C16">
         <f ca="1">RAND()*(C$1-C$2)+C$2</f>
-        <v>0.38198546723883908</v>
+        <v>2.6479366424549657</v>
       </c>
       <c r="E16">
         <f ca="1">RAND()*(E$1-E$2)+E$2</f>
-        <v>7.5612318080779506</v>
+        <v>7.2444661101000278</v>
       </c>
       <c r="F16">
         <f ca="1">RAND()*(F$1-F$2)+F$2</f>
-        <v>8.943994747528949</v>
+        <v>7.2720473890809467</v>
       </c>
       <c r="H16">
         <f ca="1">RAND()*(H$1-H$2)+H$2</f>
-        <v>5.190662602259053</v>
+        <v>2.2365288078957981</v>
       </c>
       <c r="I16">
         <f ca="1">RAND()*(I$1-I$2)+I$2</f>
-        <v>6.6852586472288706</v>
+        <v>7.7244756558350929</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17">
         <f ca="1">RAND()*(B$1-B$2)+B$2</f>
-        <v>0.62377028056304462</v>
+        <v>0.92340194883408999</v>
       </c>
       <c r="C17">
         <f ca="1">RAND()*(C$1-C$2)+C$2</f>
-        <v>0.42611071065918893</v>
+        <v>2.2733319911942003</v>
       </c>
       <c r="E17">
         <f ca="1">RAND()*(E$1-E$2)+E$2</f>
-        <v>8.7447563867597946</v>
+        <v>7.1220578834130048</v>
       </c>
       <c r="F17">
         <f ca="1">RAND()*(F$1-F$2)+F$2</f>
-        <v>7.0616770522756216</v>
+        <v>8.1874180923798292</v>
       </c>
       <c r="H17">
         <f ca="1">RAND()*(H$1-H$2)+H$2</f>
-        <v>2.8738292780877743</v>
+        <v>3.2052463639832767</v>
       </c>
       <c r="I17">
         <f ca="1">RAND()*(I$1-I$2)+I$2</f>
-        <v>6.0250199881011195</v>
+        <v>6.4558047386218824</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18">
         <f ca="1">RAND()*(B$1-B$2)+B$2</f>
-        <v>2.93138521007829</v>
+        <v>1.0409673144837206</v>
       </c>
       <c r="C18">
         <f ca="1">RAND()*(C$1-C$2)+C$2</f>
-        <v>2.615504738021861</v>
+        <v>1.5362211217393531</v>
       </c>
       <c r="E18">
         <f ca="1">RAND()*(E$1-E$2)+E$2</f>
-        <v>6.6291443245603894</v>
+        <v>8.3860882773936218</v>
       </c>
       <c r="F18">
         <f ca="1">RAND()*(F$1-F$2)+F$2</f>
-        <v>8.0292897501746516</v>
+        <v>5.2702541514780421</v>
       </c>
       <c r="H18">
         <f ca="1">RAND()*(H$1-H$2)+H$2</f>
-        <v>2.8344124237929238</v>
+        <v>3.4475004224670664</v>
       </c>
       <c r="I18">
         <f ca="1">RAND()*(I$1-I$2)+I$2</f>
-        <v>5.7822478468071781</v>
+        <v>7.7243804928628919</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19">
         <f ca="1">RAND()*(B$1-B$2)+B$2</f>
-        <v>1.7869856800852184</v>
+        <v>3.3412107026395277</v>
       </c>
       <c r="C19">
         <f ca="1">RAND()*(C$1-C$2)+C$2</f>
-        <v>1.2993958451491467</v>
+        <v>0.24536834723713552</v>
       </c>
       <c r="E19">
         <f ca="1">RAND()*(E$1-E$2)+E$2</f>
-        <v>6.5395376705951316</v>
+        <v>8.3108011442719629</v>
       </c>
       <c r="F19">
         <f ca="1">RAND()*(F$1-F$2)+F$2</f>
-        <v>6.5927872713438154</v>
+        <v>7.6470096635673199</v>
       </c>
       <c r="H19">
         <f ca="1">RAND()*(H$1-H$2)+H$2</f>
-        <v>2.8690397094271156</v>
+        <v>3.4668896501453665</v>
       </c>
       <c r="I19">
         <f ca="1">RAND()*(I$1-I$2)+I$2</f>
-        <v>7.2234956851654317</v>
+        <v>6.1899775521062006</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20">
         <f ca="1">RAND()*(B$1-B$2)+B$2</f>
-        <v>1.6195165290695286</v>
+        <v>1.2924580332004538</v>
       </c>
       <c r="C20">
         <f ca="1">RAND()*(C$1-C$2)+C$2</f>
-        <v>1.1549501081993427</v>
+        <v>1.1630358702021717</v>
       </c>
       <c r="E20">
         <f ca="1">RAND()*(E$1-E$2)+E$2</f>
-        <v>7.5516803768753284</v>
+        <v>8.6868678589154626</v>
       </c>
       <c r="F20">
         <f ca="1">RAND()*(F$1-F$2)+F$2</f>
-        <v>7.258619016361135</v>
+        <v>6.9683202307764249</v>
       </c>
       <c r="H20">
         <f ca="1">RAND()*(H$1-H$2)+H$2</f>
-        <v>4.3871875109810876</v>
+        <v>3.5924285103221782</v>
       </c>
       <c r="I20">
         <f ca="1">RAND()*(I$1-I$2)+I$2</f>
-        <v>6.917881919654767</v>
+        <v>7.6529873686477785</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21">
         <f ca="1">RAND()*(B$1-B$2)+B$2</f>
-        <v>4.4035133654849652</v>
+        <v>1.6927755943636769</v>
       </c>
       <c r="C21">
         <f ca="1">RAND()*(C$1-C$2)+C$2</f>
-        <v>1.2443141745334152</v>
+        <v>2.3267864163910272</v>
       </c>
       <c r="E21">
         <f ca="1">RAND()*(E$1-E$2)+E$2</f>
-        <v>8.8341212622936176</v>
+        <v>9.4990683945409646</v>
       </c>
       <c r="F21">
         <f ca="1">RAND()*(F$1-F$2)+F$2</f>
-        <v>6.1285166739670078</v>
+        <v>9.7532933892545586</v>
       </c>
       <c r="H21">
         <f ca="1">RAND()*(H$1-H$2)+H$2</f>
-        <v>5.1853398721468711</v>
+        <v>2.6930683393258179</v>
       </c>
       <c r="I21">
         <f ca="1">RAND()*(I$1-I$2)+I$2</f>
-        <v>7.2289778249935068</v>
+        <v>5.768959697408155</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22">
         <f ca="1">RAND()*(B$1-B$2)+B$2</f>
-        <v>3.8881324236397723</v>
+        <v>1.0757363731284741</v>
       </c>
       <c r="C22">
         <f ca="1">RAND()*(C$1-C$2)+C$2</f>
-        <v>0.62354881774007631</v>
+        <v>2.7536506540329424</v>
       </c>
       <c r="E22">
         <f ca="1">RAND()*(E$1-E$2)+E$2</f>
-        <v>6.8120667220925935</v>
+        <v>9.4205319484592316</v>
       </c>
       <c r="F22">
         <f ca="1">RAND()*(F$1-F$2)+F$2</f>
-        <v>5.5744921824233273</v>
+        <v>6.6275432268149164</v>
       </c>
       <c r="H22">
         <f ca="1">RAND()*(H$1-H$2)+H$2</f>
-        <v>2.7965291734775515</v>
+        <v>5.3714917750530935</v>
       </c>
       <c r="I22">
         <f ca="1">RAND()*(I$1-I$2)+I$2</f>
-        <v>5.9446082804183806</v>
+        <v>5.6260322497364701</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23">
         <f ca="1">RAND()*(B$1-B$2)+B$2</f>
-        <v>3.9506089644321216</v>
+        <v>3.4585050097225629</v>
       </c>
       <c r="C23">
         <f ca="1">RAND()*(C$1-C$2)+C$2</f>
-        <v>2.0176969087665739</v>
+        <v>1.4744465779744327</v>
       </c>
       <c r="E23">
         <f ca="1">RAND()*(E$1-E$2)+E$2</f>
-        <v>9.8335592163320609</v>
+        <v>7.5046387995057211</v>
       </c>
       <c r="F23">
         <f ca="1">RAND()*(F$1-F$2)+F$2</f>
-        <v>9.0635481140850338</v>
+        <v>8.9285619066978139</v>
       </c>
       <c r="H23">
         <f ca="1">RAND()*(H$1-H$2)+H$2</f>
-        <v>4.5030381639647734</v>
+        <v>3.2657496139073552</v>
       </c>
       <c r="I23">
         <f ca="1">RAND()*(I$1-I$2)+I$2</f>
-        <v>5.5045937444920927</v>
+        <v>7.3132612047277483</v>
       </c>
     </row>
   </sheetData>
@@ -2792,4 +4130,500 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEF20C1-474D-417A-B26C-0D1639283952}">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
+        <v>2.6952108834403834</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2.7878407381967252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>3.4282857977128387</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.9508634307973787</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>8.3691388509860021E-3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.17379378646695343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3.8024639996148117</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.5760456927497701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>0.32864265262475656</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.3039976142029206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>2.555114360988449</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.6495748504019168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>1.4085381238049999</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.6136640383830438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>3.598549049317727</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.0852078902810041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>4.0441159549790733</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.2075233662218974E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>0.22762892190812123</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.9307151275873906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>3.9310344464319731</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.959522451862286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>4.4323187889325251</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.90967866557786281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>1.2964222898565358</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.6009348126550043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>3.193039416852093</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.674916568840934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>0.9806548091388112</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.9655206816265212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>4.0973140445490044</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.25201608084939597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>3.8795012347266216</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.4910526515133258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>1.1484393083182036</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.90170376427407639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>0.59767532503237686</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.0158522773201408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>1.8595743572127259</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.4370689778276136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>8.3648454190843822</v>
+      </c>
+      <c r="B21" s="2">
+        <v>8.934052129645254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>8.205696075209298</v>
+      </c>
+      <c r="B22" s="2">
+        <v>9.3993323744413004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>9.6211373158349147</v>
+      </c>
+      <c r="B23" s="2">
+        <v>9.70841284332149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>9.4234249497817792</v>
+      </c>
+      <c r="B24" s="2">
+        <v>6.514393314277199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>8.638280349810211</v>
+      </c>
+      <c r="B25" s="2">
+        <v>8.4128242672066804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>9.5234573847202313</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5.6118746602964533</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>6.6857315441541028</v>
+      </c>
+      <c r="B27" s="2">
+        <v>8.6934147526509342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>9.53343105364333</v>
+      </c>
+      <c r="B28" s="2">
+        <v>7.7207960497533232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>9.3645532551837256</v>
+      </c>
+      <c r="B29" s="2">
+        <v>5.5667620612250879</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>7.8521619680747765</v>
+      </c>
+      <c r="B30" s="2">
+        <v>7.3633634535758414</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>6.6651433508549838</v>
+      </c>
+      <c r="B31" s="2">
+        <v>8.0071872537843998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>7.0733775041267304</v>
+      </c>
+      <c r="B32" s="2">
+        <v>5.8103926876248275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>8.8034535007733012</v>
+      </c>
+      <c r="B33" s="2">
+        <v>7.4646240123068184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>8.8221841421890321</v>
+      </c>
+      <c r="B34" s="2">
+        <v>8.0889732214675583</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>6.7414153070445053</v>
+      </c>
+      <c r="B35" s="2">
+        <v>6.5768436365571867</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>7.7945845770878561</v>
+      </c>
+      <c r="B36" s="2">
+        <v>9.1169051946209869</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>8.3565097316524071</v>
+      </c>
+      <c r="B37" s="2">
+        <v>7.5630487902367705</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>8.5542187652678461</v>
+      </c>
+      <c r="B38" s="2">
+        <v>6.0232392653927018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>7.904391857747691</v>
+      </c>
+      <c r="B39" s="2">
+        <v>7.3242241268048103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>8.314547457076042</v>
+      </c>
+      <c r="B40" s="2">
+        <v>7.2994425791683053</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>4.6692439764906908</v>
+      </c>
+      <c r="B41" s="3">
+        <v>7.2656542395145696</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>4.015789134297628</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5.6673906652677593</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>4.8132631439578049</v>
+      </c>
+      <c r="B43" s="3">
+        <v>5.6248821612570143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>2.7768478906292793</v>
+      </c>
+      <c r="B44" s="3">
+        <v>7.8983799507191694</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>5.4879654460946643</v>
+      </c>
+      <c r="B45" s="3">
+        <v>6.6511479600617491</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>3.9470414005408472</v>
+      </c>
+      <c r="B46" s="3">
+        <v>7.0117434385128021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>4.0858205236498311</v>
+      </c>
+      <c r="B47" s="3">
+        <v>7.0717741921858357</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>4.8966524743608426</v>
+      </c>
+      <c r="B48" s="3">
+        <v>7.3883708925846765</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>2.6472799776193066</v>
+      </c>
+      <c r="B49" s="3">
+        <v>6.5318848333161075</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>4.9995673527421012</v>
+      </c>
+      <c r="B50" s="3">
+        <v>6.0302783567219498</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>2.7016669600332297</v>
+      </c>
+      <c r="B51" s="3">
+        <v>7.5941886384787303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>4.2668388300835911</v>
+      </c>
+      <c r="B52" s="3">
+        <v>7.78948755652066</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>2.0111468957721845</v>
+      </c>
+      <c r="B53" s="3">
+        <v>6.4654270388809216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>2.615213198968819</v>
+      </c>
+      <c r="B54" s="3">
+        <v>7.7307121832036252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>5.063821411043639</v>
+      </c>
+      <c r="B55" s="3">
+        <v>6.7517368718727635</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>3.8900325669460196</v>
+      </c>
+      <c r="B56" s="3">
+        <v>7.5129856460665358</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>3.8256633969165099</v>
+      </c>
+      <c r="B57" s="3">
+        <v>7.9683151881164473</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>4.3975835137915027</v>
+      </c>
+      <c r="B58" s="3">
+        <v>6.9003910109569828</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>2.1957693512180416</v>
+      </c>
+      <c r="B59" s="3">
+        <v>5.652303793252587</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <v>4.099397644321952</v>
+      </c>
+      <c r="B60" s="3">
+        <v>6.0810135445290747</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>